--- a/doc/ACAP manto PH 7.3 08-04-21.xlsx
+++ b/doc/ACAP manto PH 7.3 08-04-21.xlsx
@@ -513,11 +513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85248256"/>
-        <c:axId val="102940672"/>
+        <c:axId val="141789056"/>
+        <c:axId val="141790592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85248256"/>
+        <c:axId val="141789056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102940672"/>
+        <c:crossAx val="141790592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102940672"/>
+        <c:axId val="141790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85248256"/>
+        <c:crossAx val="141789056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7929,7 +7929,7 @@
   <dimension ref="A1:I1249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30900,7 +30900,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/ACAP manto PH 7.3 08-04-21.xlsx
+++ b/doc/ACAP manto PH 7.3 08-04-21.xlsx
@@ -200,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +243,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -308,6 +314,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,286 +327,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados sem e com ABAP'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados sem e com ABAP'!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3654866.6666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4295292.666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5448876.333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6828985.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8529625.666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10393660.333333334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12369009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14507282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16698901.333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19041842</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados sem e com ABAP'!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3000531</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3662066.6666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4918775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6606461.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8854083</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11589214</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14659263.333333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18230509.333333332</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22250978</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26608882</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="141789056"/>
-        <c:axId val="141790592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="141789056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141790592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="141790592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141789056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30899,8 +30626,8 @@
   </sheetPr>
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150:G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31064,6 +30791,18 @@
       <c r="D10" s="13">
         <v>22250978</v>
       </c>
+      <c r="E10">
+        <f>E4/3*$G$2^3+E5/2*$G$2^2+E6*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F4/3*$G$2^3+F5/2*$G$2^2+F6*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="e">
+        <f>(F10-E10)/E10</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
@@ -31078,18 +30817,9 @@
       <c r="D11" s="13">
         <v>26608882</v>
       </c>
-      <c r="E11">
-        <f>E4/3*$G$2^3+E5/2*$G$2^2+E6*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>F4/3*$G$2^3+F5/2*$G$2^2+F6*$G$2</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="e">
-        <f>(F11-E11)/E11</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
@@ -31161,7 +30891,7 @@
         <v>6663467.666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
@@ -31175,7 +30905,7 @@
         <v>8142446.333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
@@ -31189,7 +30919,7 @@
         <v>10077515</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
@@ -31203,7 +30933,7 @@
         <v>12238072</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
@@ -31216,8 +30946,20 @@
       <c r="D20" s="13">
         <v>14811768.333333334</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>E14/3*$G$2^3+E15/2*$G$2^2+E16*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>F14/3*$G$2^3+F15/2*$G$2^2+F16*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="e">
+        <f>(F20-E20)/E20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
@@ -31230,8 +30972,11 @@
       <c r="D21" s="13">
         <v>17728152</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
@@ -31245,7 +30990,7 @@
         <v>3503557.6666666665</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
@@ -31259,7 +31004,7 @@
         <v>3793764</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -31273,7 +31018,7 @@
         <v>4347934</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
@@ -31287,7 +31032,7 @@
         <v>5150996.333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>26</v>
       </c>
@@ -31301,7 +31046,7 @@
         <v>6127752.666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
@@ -31315,7 +31060,7 @@
         <v>7427287</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>26</v>
       </c>
@@ -31329,7 +31074,7 @@
         <v>8998851</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
@@ -31343,7 +31088,7 @@
         <v>10800800.666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
@@ -31356,8 +31101,20 @@
       <c r="D30" s="13">
         <v>12983791</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f>E24/3*$G$2^3+E25/2*$G$2^2+E26*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>F24/3*$G$2^3+F25/2*$G$2^2+F26*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="e">
+        <f>(F30-E30)/E30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -31370,8 +31127,11 @@
       <c r="D31" s="13">
         <v>15362172.666666666</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
@@ -31385,7 +31145,7 @@
         <v>3137509.6666666665</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>27</v>
       </c>
@@ -31399,7 +31159,7 @@
         <v>3491187.6666666665</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>27</v>
       </c>
@@ -31413,7 +31173,7 @@
         <v>4045074.3333333335</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>27</v>
       </c>
@@ -31427,7 +31187,7 @@
         <v>4928766</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>27</v>
       </c>
@@ -31441,7 +31201,7 @@
         <v>6009196.666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>27</v>
       </c>
@@ -31455,7 +31215,7 @@
         <v>7245564.333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>27</v>
       </c>
@@ -31469,7 +31229,7 @@
         <v>8748753.666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>27</v>
       </c>
@@ -31483,7 +31243,7 @@
         <v>10504673.666666666</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>27</v>
       </c>
@@ -31496,8 +31256,20 @@
       <c r="D40" s="13">
         <v>12578133.333333334</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f>E34/3*$G$2^3+E35/2*$G$2^2+E36*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>F34/3*$G$2^3+F35/2*$G$2^2+F36*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="e">
+        <f>(F40-E40)/E40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
@@ -31510,8 +31282,11 @@
       <c r="D41" s="13">
         <v>14927819.333333334</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>28</v>
       </c>
@@ -31525,7 +31300,7 @@
         <v>3531445.6666666665</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>28</v>
       </c>
@@ -31539,7 +31314,7 @@
         <v>3992935</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>28</v>
       </c>
@@ -31553,7 +31328,7 @@
         <v>4862644.333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>28</v>
       </c>
@@ -31567,7 +31342,7 @@
         <v>5926785</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>28</v>
       </c>
@@ -31581,7 +31356,7 @@
         <v>7281805.666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>28</v>
       </c>
@@ -31595,7 +31370,7 @@
         <v>8985463</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>28</v>
       </c>
@@ -31609,7 +31384,7 @@
         <v>10973406.666666666</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>28</v>
       </c>
@@ -31623,7 +31398,7 @@
         <v>13239996.333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>28</v>
       </c>
@@ -31636,8 +31411,20 @@
       <c r="D50" s="13">
         <v>15744947.666666666</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f>E44/3*$G$2^3+E45/2*$G$2^2+E46*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>F44/3*$G$2^3+F45/2*$G$2^2+F46*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="e">
+        <f>(F50-E50)/E50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>28</v>
       </c>
@@ -31650,8 +31437,11 @@
       <c r="D51" s="13">
         <v>18545750.666666668</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>29</v>
       </c>
@@ -31665,7 +31455,7 @@
         <v>4305276.666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>29</v>
       </c>
@@ -31679,7 +31469,7 @@
         <v>4751939.666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>29</v>
       </c>
@@ -31693,7 +31483,7 @@
         <v>5416708</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>29</v>
       </c>
@@ -31707,7 +31497,7 @@
         <v>6280455</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>29</v>
       </c>
@@ -31721,7 +31511,7 @@
         <v>7530999.666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>29</v>
       </c>
@@ -31735,7 +31525,7 @@
         <v>9182446.333333334</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>29</v>
       </c>
@@ -31749,7 +31539,7 @@
         <v>11068084</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>29</v>
       </c>
@@ -31763,7 +31553,7 @@
         <v>13401579.333333334</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>29</v>
       </c>
@@ -31776,8 +31566,20 @@
       <c r="D60" s="13">
         <v>16167701.333333334</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f>E54/3*$G$2^3+E55/2*$G$2^2+E56*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>F54/3*$G$2^3+F55/2*$G$2^2+F56*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="e">
+        <f>(F60-E60)/E60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>29</v>
       </c>
@@ -31790,8 +31592,11 @@
       <c r="D61" s="13">
         <v>19318137.333333332</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>30</v>
       </c>
@@ -31805,7 +31610,7 @@
         <v>5143784.333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>30</v>
       </c>
@@ -31819,7 +31624,7 @@
         <v>5594209.333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>30</v>
       </c>
@@ -31833,7 +31638,7 @@
         <v>6302211.666666667</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>30</v>
       </c>
@@ -31847,7 +31652,7 @@
         <v>7210464.666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>30</v>
       </c>
@@ -31861,7 +31666,7 @@
         <v>8373111.666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>30</v>
       </c>
@@ -31875,7 +31680,7 @@
         <v>9789369.333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>30</v>
       </c>
@@ -31889,7 +31694,7 @@
         <v>11533838</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>30</v>
       </c>
@@ -31903,7 +31708,7 @@
         <v>13527841.666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>30</v>
       </c>
@@ -31916,8 +31721,20 @@
       <c r="D70" s="13">
         <v>15876230.333333334</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <f>E64/3*$G$2^3+E65/2*$G$2^2+E66*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>F64/3*$G$2^3+F65/2*$G$2^2+F66*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="e">
+        <f>(F70-E70)/E70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>30</v>
       </c>
@@ -31930,8 +31747,11 @@
       <c r="D71" s="13">
         <v>18531988</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>31</v>
       </c>
@@ -31945,7 +31765,7 @@
         <v>4065448</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>31</v>
       </c>
@@ -31959,7 +31779,7 @@
         <v>4623032.666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>31</v>
       </c>
@@ -31973,7 +31793,7 @@
         <v>5290868.666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>31</v>
       </c>
@@ -31987,7 +31807,7 @@
         <v>6373150.666666667</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>31</v>
       </c>
@@ -32001,7 +31821,7 @@
         <v>7608738.666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>31</v>
       </c>
@@ -32015,7 +31835,7 @@
         <v>9178120.666666666</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>31</v>
       </c>
@@ -32029,7 +31849,7 @@
         <v>10939402.333333334</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>31</v>
       </c>
@@ -32043,7 +31863,7 @@
         <v>12918008.333333334</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>31</v>
       </c>
@@ -32056,8 +31876,20 @@
       <c r="D80" s="13">
         <v>15208302</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <f>E74/3*$G$2^3+E75/2*$G$2^2+E76*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>F74/3*$G$2^3+F75/2*$G$2^2+F76*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G80" t="e">
+        <f>(F80-E80)/E80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>31</v>
       </c>
@@ -32070,8 +31902,11 @@
       <c r="D81" s="13">
         <v>17701329.666666668</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>32</v>
       </c>
@@ -32085,7 +31920,7 @@
         <v>3184194</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>32</v>
       </c>
@@ -32099,7 +31934,7 @@
         <v>3557769.6666666665</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>32</v>
       </c>
@@ -32113,7 +31948,7 @@
         <v>4110606</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>32</v>
       </c>
@@ -32127,7 +31962,7 @@
         <v>5104136.333333333</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>32</v>
       </c>
@@ -32141,7 +31976,7 @@
         <v>6209043</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>32</v>
       </c>
@@ -32155,7 +31990,7 @@
         <v>7610163.333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>32</v>
       </c>
@@ -32169,7 +32004,7 @@
         <v>9210910.333333334</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>32</v>
       </c>
@@ -32183,7 +32018,7 @@
         <v>11109752.666666666</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>32</v>
       </c>
@@ -32196,8 +32031,20 @@
       <c r="D90" s="13">
         <v>13343968.666666666</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <f>E84/3*$G$2^3+E85/2*$G$2^2+E86*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>F84/3*$G$2^3+F85/2*$G$2^2+F86*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G90" t="e">
+        <f>(F90-E90)/E90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>32</v>
       </c>
@@ -32210,8 +32057,11 @@
       <c r="D91" s="13">
         <v>15854098.666666666</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>33</v>
       </c>
@@ -32225,7 +32075,7 @@
         <v>3034716</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>33</v>
       </c>
@@ -32239,7 +32089,7 @@
         <v>3349314.3333333335</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>33</v>
       </c>
@@ -32253,7 +32103,7 @@
         <v>3858030.3333333335</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>33</v>
       </c>
@@ -32267,7 +32117,7 @@
         <v>4815509.666666667</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>33</v>
       </c>
@@ -32281,7 +32131,7 @@
         <v>5955776</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>33</v>
       </c>
@@ -32295,7 +32145,7 @@
         <v>7387654.666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>33</v>
       </c>
@@ -32309,7 +32159,7 @@
         <v>9111152.333333334</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>33</v>
       </c>
@@ -32323,7 +32173,7 @@
         <v>11285965.666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>33</v>
       </c>
@@ -32336,8 +32186,20 @@
       <c r="D100" s="13">
         <v>13723465.333333334</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <f>E94/3*$G$2^3+E95/2*$G$2^2+E96*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>F94/3*$G$2^3+F95/2*$G$2^2+F96*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G100" t="e">
+        <f>(F100-E100)/E100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>33</v>
       </c>
@@ -32350,8 +32212,11 @@
       <c r="D101" s="13">
         <v>16516657.333333334</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>34</v>
       </c>
@@ -32365,7 +32230,7 @@
         <v>3880050.3333333335</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>34</v>
       </c>
@@ -32379,7 +32244,7 @@
         <v>4351817</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>34</v>
       </c>
@@ -32393,7 +32258,7 @@
         <v>5177327</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>34</v>
       </c>
@@ -32407,7 +32272,7 @@
         <v>6338020</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>34</v>
       </c>
@@ -32421,7 +32286,7 @@
         <v>7844344.333333333</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>34</v>
       </c>
@@ -32435,7 +32300,7 @@
         <v>9719758.666666666</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>34</v>
       </c>
@@ -32449,7 +32314,7 @@
         <v>12012808.666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>34</v>
       </c>
@@ -32463,7 +32328,7 @@
         <v>14831653.333333334</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>34</v>
       </c>
@@ -32476,8 +32341,20 @@
       <c r="D110" s="13">
         <v>17945280</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <f>E104/3*$G$2^3+E105/2*$G$2^2+E106*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f>F104/3*$G$2^3+F105/2*$G$2^2+F106*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G110" t="e">
+        <f>(F110-E110)/E110</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>34</v>
       </c>
@@ -32490,8 +32367,11 @@
       <c r="D111" s="13">
         <v>21519917.333333332</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
         <v>35</v>
       </c>
@@ -32505,7 +32385,7 @@
         <v>3009833.6666666665</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
         <v>35</v>
       </c>
@@ -32519,7 +32399,7 @@
         <v>3468122.3333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
         <v>35</v>
       </c>
@@ -32533,7 +32413,7 @@
         <v>4160328.3333333335</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
         <v>35</v>
       </c>
@@ -32547,7 +32427,7 @@
         <v>5356423.666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
         <v>35</v>
       </c>
@@ -32561,7 +32441,7 @@
         <v>6673057</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
         <v>35</v>
       </c>
@@ -32575,7 +32455,7 @@
         <v>8371465.333333333</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
         <v>35</v>
       </c>
@@ -32589,7 +32469,7 @@
         <v>10348653.333333334</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
         <v>35</v>
       </c>
@@ -32603,7 +32483,7 @@
         <v>12668120.666666666</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
         <v>35</v>
       </c>
@@ -32616,8 +32496,20 @@
       <c r="D120" s="13">
         <v>15365339.333333334</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <f>E114/3*$G$2^3+E115/2*$G$2^2+E116*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f>F114/3*$G$2^3+F115/2*$G$2^2+F116*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G120" t="e">
+        <f>(F120-E120)/E120</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
         <v>35</v>
       </c>
@@ -32630,8 +32522,11 @@
       <c r="D121" s="13">
         <v>18350908</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
         <v>36</v>
       </c>
@@ -32645,7 +32540,7 @@
         <v>3934327.3333333335</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
         <v>36</v>
       </c>
@@ -32659,7 +32554,7 @@
         <v>6006233.333333333</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
         <v>36</v>
       </c>
@@ -32673,7 +32568,7 @@
         <v>9417128</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
         <v>36</v>
       </c>
@@ -32687,7 +32582,7 @@
         <v>13902521.333333334</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>36</v>
       </c>
@@ -32701,7 +32596,7 @@
         <v>19359537.333333332</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
         <v>36</v>
       </c>
@@ -32715,7 +32610,7 @@
         <v>25227896</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
         <v>36</v>
       </c>
@@ -32729,7 +32624,7 @@
         <v>31396951.333333332</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
         <v>36</v>
       </c>
@@ -32743,7 +32638,7 @@
         <v>37879314.666666664</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
         <v>36</v>
       </c>
@@ -32756,8 +32651,20 @@
       <c r="D130" s="13">
         <v>44679396</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <f>E124/3*$G$2^3+E125/2*$G$2^2+E126*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f>F124/3*$G$2^3+F125/2*$G$2^2+F126*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G130" t="e">
+        <f>(F130-E130)/E130</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
         <v>36</v>
       </c>
@@ -32770,8 +32677,11 @@
       <c r="D131" s="13">
         <v>51649484</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+    </row>
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
         <v>37</v>
       </c>
@@ -32785,7 +32695,7 @@
         <v>3182093</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
         <v>37</v>
       </c>
@@ -32799,7 +32709,7 @@
         <v>3817792.6666666665</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
         <v>37</v>
       </c>
@@ -32813,7 +32723,7 @@
         <v>5043708</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
         <v>37</v>
       </c>
@@ -32827,7 +32737,7 @@
         <v>6771873.666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
         <v>37</v>
       </c>
@@ -32841,7 +32751,7 @@
         <v>9156241</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
         <v>37</v>
       </c>
@@ -32855,7 +32765,7 @@
         <v>11961251.333333334</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
         <v>37</v>
       </c>
@@ -32869,7 +32779,7 @@
         <v>15373559.333333334</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="s">
         <v>37</v>
       </c>
@@ -32883,7 +32793,7 @@
         <v>19288807</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="21" t="s">
         <v>37</v>
       </c>
@@ -32896,8 +32806,20 @@
       <c r="D140" s="13">
         <v>23728491.333333332</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <f>E134/3*$G$2^3+E135/2*$G$2^2+E136*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f>F134/3*$G$2^3+F135/2*$G$2^2+F136*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G140" t="e">
+        <f>(F140-E140)/E140</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="21" t="s">
         <v>37</v>
       </c>
@@ -32910,8 +32832,11 @@
       <c r="D141" s="13">
         <v>28714813.333333332</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+    </row>
+    <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="s">
         <v>38</v>
       </c>
@@ -32925,7 +32850,7 @@
         <v>3078904.3333333335</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
         <v>38</v>
       </c>
@@ -32939,7 +32864,7 @@
         <v>3409693.6666666665</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
         <v>38</v>
       </c>
@@ -32953,7 +32878,7 @@
         <v>3925340.6666666665</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
         <v>38</v>
       </c>
@@ -32967,7 +32892,7 @@
         <v>4776995</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
         <v>38</v>
       </c>
@@ -32981,7 +32906,7 @@
         <v>5852665.333333333</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
         <v>38</v>
       </c>
@@ -32995,7 +32920,7 @@
         <v>7063805.666666667</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
         <v>38</v>
       </c>
@@ -33009,7 +32934,7 @@
         <v>8469497.333333334</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
         <v>38</v>
       </c>
@@ -33023,7 +32948,7 @@
         <v>10157779.333333334</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="21" t="s">
         <v>38</v>
       </c>
@@ -33036,8 +32961,20 @@
       <c r="D150" s="13">
         <v>12047147</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <f>E144/3*$G$2^3+E145/2*$G$2^2+E146*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f>F144/3*$G$2^3+F145/2*$G$2^2+F146*$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G150" t="e">
+        <f>(F150-E150)/E150</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
         <v>38</v>
       </c>
@@ -33050,9 +32987,11 @@
       <c r="D151" s="13">
         <v>14181863</v>
       </c>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>